--- a/EDA_Entrega/data/correlation_age_cancer.xlsx
+++ b/EDA_Entrega/data/correlation_age_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6422853369709027</v>
+        <v>-0.6422853369709814</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17313318.61116795</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1501437063.401283</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6422853329767825</v>
+        <v>-0.6422853329768573</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17313.31864933053</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1501437.049284081</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06288114877463798</v>
+        <v>-0.06288114877463688</v>
       </c>
       <c r="E4" t="n">
+        <v>9.56383063568541e-73</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.6875443101903559</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>242.2781240231691</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04183607893545534</v>
+        <v>0.04183607893543459</v>
       </c>
       <c r="E5" t="n">
+        <v>1.198395727034747e-28</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0002500274507744404</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.03618604195917634</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0532522677424809</v>
+        <v>0.05325226774248325</v>
       </c>
       <c r="E6" t="n">
+        <v>2.189772753684702e-45</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.000837691231619326</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1543518734320053</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1003275824730234</v>
+        <v>-0.1003275824730068</v>
       </c>
       <c r="E7" t="n">
+        <v>6.443339150121558e-161</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003110516904210372</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.162589585251514</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.0161302746921882</v>
+        <v>-0.0161302746921902</v>
       </c>
       <c r="E8" t="n">
+        <v>1.466836156575835e-05</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.04525587475076677</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>83.95983590628342</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1744073345551212</v>
+        <v>-0.1744073345550622</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2471148837346606</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>37.99902397801338</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.03469933668278435</v>
+        <v>-0.03469933668278199</v>
       </c>
       <c r="E10" t="n">
+        <v>3.288020673050834e-20</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.007003833233748868</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.536984205347532</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.07895643904379407</v>
+        <v>0.07895643904383803</v>
       </c>
       <c r="E11" t="n">
+        <v>9.719319956167945e-98</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001711917732930505</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4488055454985821</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01258099291990808</v>
+        <v>0.01258099291990617</v>
       </c>
       <c r="E12" t="n">
+        <v>0.0008441322981092382</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.001849984989892157</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.800752903581845</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.07217114346282054</v>
+        <v>-0.07217114346282968</v>
       </c>
       <c r="E13" t="n">
+        <v>3.039067022113987e-83</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1028181508733082</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>29.89754893218175</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.05330867775432399</v>
+        <v>0.05330867775431811</v>
       </c>
       <c r="E14" t="n">
+        <v>1.789639017438729e-45</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.003330450046493388</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6483765225195446</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0762481404026488</v>
+        <v>0.07624814040265911</v>
       </c>
       <c r="E15" t="n">
+        <v>2.465151629747198e-93</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002016400184038387</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.333226600728854</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2161495219732329</v>
+        <v>0.2161495219732476</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1452331802704311</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7.630287670641566</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01873208562951809</v>
+        <v>0.01873208562951894</v>
       </c>
       <c r="E17" t="n">
+        <v>4.841466101132667e-07</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0007098049521218403</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.256357036757613</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1117088276005141</v>
+        <v>-0.1117088276005333</v>
       </c>
       <c r="E18" t="n">
+        <v>3.222678024596028e-199</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.4479625145230556</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>218.6775148052721</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02451797400055255</v>
+        <v>-0.02451797400055707</v>
       </c>
       <c r="E19" t="n">
+        <v>4.397947615862816e-11</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.00730982983360194</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.3609104260496</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04919261569165252</v>
+        <v>-0.04919261569165517</v>
       </c>
       <c r="E20" t="n">
+        <v>6.3676473528341e-40</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.865297838574444</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>454.8432366261713</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1024783422984269</v>
+        <v>0.102478342298415</v>
       </c>
       <c r="E21" t="n">
+        <v>1.124605642669897e-167</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.02569571591111014</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.27935924789869</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.06162170956874379</v>
+        <v>0.06162170956873736</v>
       </c>
       <c r="E22" t="n">
+        <v>9.849863842609349e-62</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.003700093466443997</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.7067547191367073</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02242236759162771</v>
+        <v>0.02242236759162843</v>
       </c>
       <c r="E23" t="n">
+        <v>1.687900937996599e-09</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.02196660916514674</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3.08758558020147</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.204659923701199</v>
+        <v>0.2046599237012169</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01092504644257624</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.4027091355662283</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3013144505732536</v>
+        <v>-0.3013144505732454</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07053147778847443</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.318250677036529</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.08998249219482697</v>
+        <v>0.08998249219485178</v>
       </c>
       <c r="E26" t="n">
+        <v>1.787122133001562e-126</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01876373349342594</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.860867994714619</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02422924920890959</v>
+        <v>-0.02422924920890615</v>
       </c>
       <c r="E27" t="n">
+        <v>7.700420757223902e-11</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4204726771601152</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>181.0500358640704</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.00399679840309566</v>
+        <v>-0.003996798403096104</v>
       </c>
       <c r="E28" t="n">
+        <v>0.2834158317598415</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.01708092646973672</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>111.6964168530358</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.09188401067228898</v>
+        <v>-0.09188401067229779</v>
       </c>
       <c r="E29" t="n">
+        <v>2.212219830176054e-132</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.03826440505884903</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.3568578781562</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.02326072840051758</v>
+        <v>0.02326072840051373</v>
       </c>
       <c r="E30" t="n">
+        <v>4.051410521242371e-10</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.04780128623631007</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>53.60871943003372</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1111580713056271</v>
+        <v>-0.1111580713056223</v>
       </c>
       <c r="E31" t="n">
+        <v>2.845550790320216e-193</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01608123684997493</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.76097564933898</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.07694560393052463</v>
+        <v>0.07694560393052288</v>
       </c>
       <c r="E32" t="n">
+        <v>5.891036587075056e-95</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.00328103721571294</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.967869473831457</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1101832891461329</v>
+        <v>-0.1101832891461121</v>
       </c>
       <c r="E33" t="n">
+        <v>3.452689310956994e-189</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.3824618211211271</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>128.1229308905033</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1578077607960172</v>
+        <v>-0.157807760796029</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1423127133707078</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>40.02726886274182</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1033316682405043</v>
+        <v>0.1033316682405342</v>
       </c>
       <c r="E35" t="n">
+        <v>1.303836109241181e-166</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.02266891348720317</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>28.92086009077943</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.0637178093436185</v>
+        <v>-0.06371780934364098</v>
       </c>
       <c r="E36" t="n">
+        <v>5.581231770556378e-64</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.007831783934370487</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.30298640961972</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1530532203656413</v>
+        <v>0.1530532203656446</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1001705110308815</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.28275588507171</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1344563079670053</v>
+        <v>0.1344563079670158</v>
       </c>
       <c r="E38" t="n">
+        <v>2.987626005016118e-281</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03155908768742926</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.268121935934706</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.01267909578080694</v>
+        <v>0.01267909578080836</v>
       </c>
       <c r="E39" t="n">
+        <v>0.0007944528396094272</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.001258080814418159</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.16987221696527</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01515227906816722</v>
+        <v>0.015152279068164</v>
       </c>
       <c r="E40" t="n">
+        <v>4.655232057952935e-05</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.004117354232142093</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.2179778987848</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.09216402305946954</v>
+        <v>0.0921640230594606</v>
       </c>
       <c r="E41" t="n">
+        <v>1.354745762914377e-132</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.08887017828318204</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.18827188111612</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.06507388571642118</v>
+        <v>0.06507388571642589</v>
       </c>
       <c r="E42" t="n">
+        <v>9.574554411067904e-67</v>
+      </c>
+      <c r="F42" t="n">
         <v>11.79886566905858</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-474.0013509090809</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02293721787713518</v>
+        <v>0.02293721787713483</v>
       </c>
       <c r="E43" t="n">
+        <v>1.287754522219903e-09</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.005388550946919871</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.60128817014895</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1267180696669571</v>
+        <v>-0.1267180696669663</v>
       </c>
       <c r="E44" t="n">
+        <v>9.566267032498049e-251</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.8106536375515042</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>284.4821876539978</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1806759785127717</v>
+        <v>-0.1806759785127858</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.0089854214977362</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.115178977541312</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.06109563262592464</v>
+        <v>0.06109563262592147</v>
       </c>
       <c r="E46" t="n">
+        <v>1.893096420687459e-59</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.008601208026473869</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.38291071797522</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06117829301627573</v>
+        <v>-0.06117829301628561</v>
       </c>
       <c r="E47" t="n">
+        <v>7.632463427929275e-61</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6076387493640877</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>191.7268711395702</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1427681289668827</v>
+        <v>-0.142768128966856</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006169583842400421</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.30921322623391</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.007614371726772817</v>
+        <v>-0.007614371726773301</v>
       </c>
       <c r="E49" t="n">
+        <v>0.04335374718808507</v>
+      </c>
+      <c r="F49" t="n">
         <v>-0.002038776793394981</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.946911932032334</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.00862799885299032</v>
+        <v>-0.008627998852990981</v>
       </c>
       <c r="E50" t="n">
+        <v>0.02099440588615046</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.005007056821224979</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.195188159264729</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1524127142988189</v>
+        <v>0.1524127142988238</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1973905903755813</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>16.99840165205186</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1810090225996448</v>
+        <v>-0.1810090225996111</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-256.3966595364342</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>65538.92642128162</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0263821840047291</v>
+        <v>0.0263821840047279</v>
       </c>
       <c r="E53" t="n">
+        <v>1.447229291317137e-12</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02422373210845691</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.515449908060761</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01889357569513002</v>
+        <v>-0.01889357569512917</v>
       </c>
       <c r="E54" t="n">
+        <v>3.988314034749855e-07</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.9038632517305469</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>656.1728964984893</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.04206737330027336</v>
+        <v>0.04206737330027115</v>
       </c>
       <c r="E55" t="n">
+        <v>1.445698649026192e-29</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.215384042244035</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-6.853243629995232</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.09020403780297233</v>
+        <v>0.09020403780297029</v>
       </c>
       <c r="E56" t="n">
+        <v>6.486486022575014e-130</v>
+      </c>
+      <c r="F56" t="n">
         <v>16.22523671698114</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>740.6285775186457</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.174419815982675</v>
+        <v>-0.1744198159827073</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6680502542212868</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>148.6365165904504</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.05110937085878509</v>
+        <v>-0.05110937085878747</v>
       </c>
       <c r="E58" t="n">
+        <v>1.155822178334002e-31</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.002914501743085401</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.131798471553229</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03577320723595515</v>
+        <v>0.03577320723594049</v>
       </c>
       <c r="E59" t="n">
+        <v>4.660740515237821e-17</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02114797197159472</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.68268492022066</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1351597562693021</v>
+        <v>-0.1351597562693106</v>
       </c>
       <c r="E60" t="n">
+        <v>8.708539691331113e-245</v>
+      </c>
+      <c r="F60" t="n">
         <v>-133.5607292577854</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>45571.65372205673</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.002261408508758318</v>
+        <v>-0.002261408508758106</v>
       </c>
       <c r="E61" t="n">
+        <v>0.5778767958602388</v>
+      </c>
+      <c r="F61" t="n">
         <v>-0.01438390713289888</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>223.1531668713895</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.0321870638891726</v>
+        <v>0.03218706388916483</v>
       </c>
       <c r="E62" t="n">
+        <v>1.162447460031094e-16</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001509719085672791</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04031875698779626</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03119133496066173</v>
+        <v>0.03119133496066384</v>
       </c>
       <c r="E63" t="n">
+        <v>9.753546001316127e-16</v>
+      </c>
+      <c r="F63" t="n">
         <v>9.704764564173582e-05</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02983819967240012</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.001846070322089363</v>
+        <v>0.001846070322089525</v>
       </c>
       <c r="E64" t="n">
+        <v>0.6346882402897377</v>
+      </c>
+      <c r="F64" t="n">
         <v>3.419350079377929e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.006762109894430668</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0717032933499555</v>
+        <v>0.07170329334993548</v>
       </c>
       <c r="E65" t="n">
+        <v>3.005029611048641e-76</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001256535051867487</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1458185615099094</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.006555831303792889</v>
+        <v>0.006555831303792888</v>
       </c>
       <c r="E66" t="n">
+        <v>0.09155647893883108</v>
+      </c>
+      <c r="F66" t="n">
         <v>1.538434136702911e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.00156062910116161</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.06903345067753563</v>
+        <v>0.06903345067753734</v>
       </c>
       <c r="E67" t="n">
+        <v>8.778504207858268e-71</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001165973860083002</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1389208827992925</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.09166432522537275</v>
+        <v>0.09166432522534712</v>
       </c>
       <c r="E68" t="n">
+        <v>1.373389660247105e-123</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001365831431433458</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.1007265578387155</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.08820996980102294</v>
+        <v>0.08820996980102622</v>
       </c>
       <c r="E69" t="n">
+        <v>1.549315249621267e-114</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001246518232857556</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.09863238495159289</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.09066761872243695</v>
+        <v>0.09066761872244831</v>
       </c>
       <c r="E70" t="n">
+        <v>6.368621550978215e-121</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001375055557596881</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001644533772768415</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01593485451887865</v>
+        <v>0.01593485451887942</v>
       </c>
       <c r="E71" t="n">
+        <v>3.343685324031529e-05</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0002022503508336082</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6978755183403536</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.05146924476654389</v>
+        <v>-0.05146924476654732</v>
       </c>
       <c r="E72" t="n">
+        <v>5.410036859916223e-41</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0004797027937827306</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1889173192991196</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.03247581426363143</v>
+        <v>-0.03247581426363317</v>
       </c>
       <c r="E73" t="n">
+        <v>2.757666183686661e-17</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.803449737095713e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01179943240720872</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.003673172653095961</v>
+        <v>0.003673172653096359</v>
       </c>
       <c r="E74" t="n">
+        <v>0.3389658615297927</v>
+      </c>
+      <c r="F74" t="n">
         <v>2.634852885609584e-05</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9318496953019678</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.00913516470153913</v>
+        <v>-0.009135164701541205</v>
       </c>
       <c r="E75" t="n">
+        <v>0.01739888334159418</v>
+      </c>
+      <c r="F75" t="n">
         <v>-7.491939231450177e-05</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9584864914170963</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.09311932912075084</v>
+        <v>0.09311932912076724</v>
       </c>
       <c r="E76" t="n">
+        <v>2.259794757707115e-130</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0003791133606792543</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01294206384043773</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.003560225727488369</v>
+        <v>0.003560225727489054</v>
       </c>
       <c r="E77" t="n">
+        <v>0.3552650921388328</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.0005719937211071874</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.1340370674865146</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.0373181619107746</v>
+        <v>-0.03731816191077455</v>
       </c>
       <c r="E78" t="n">
+        <v>2.589617034234767e-18</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001080418032524036</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03526667464571083</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.208409885914498</v>
+        <v>-0.2084098859144854</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.004201830529421926</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6363936268268733</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1058286256893875</v>
+        <v>-0.1058286256894083</v>
       </c>
       <c r="E80" t="n">
+        <v>3.740725116946083e-167</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002708224208342978</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5355551736129813</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.05704842045182917</v>
+        <v>-0.05704842045182702</v>
       </c>
       <c r="E81" t="n">
+        <v>1.605990939663482e-49</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0003866566283062699</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.06093950513685967</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1872758652685908</v>
+        <v>-0.1872758652686284</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008835859775020997</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.570417624830717</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.0134629473210254</v>
+        <v>-0.01346294732102354</v>
       </c>
       <c r="E83" t="n">
+        <v>0.0004799143788994926</v>
+      </c>
+      <c r="F83" t="n">
         <v>-0.0001350639189555985</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02752004258355931</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.0116298428253903</v>
+        <v>0.01162984282539041</v>
       </c>
       <c r="E84" t="n">
+        <v>0.002559148786199384</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.001724962587757872</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.08383913313528724</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3344884570636069</v>
+        <v>-0.3344884570636341</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.00229704695617889</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2254661912778017</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09098588423116893</v>
+        <v>-0.09098588423116295</v>
       </c>
       <c r="E86" t="n">
+        <v>2.170305829625534e-123</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.002837778736080129</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6299561560531153</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1973791101851283</v>
+        <v>-0.1973791101851647</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01242214553765351</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.265447276733775</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1339460993935236</v>
+        <v>-0.1339460993935163</v>
       </c>
       <c r="E88" t="n">
+        <v>8.617236037470986e-267</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001450930702811586</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1933569662343654</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.09028267702566072</v>
+        <v>-0.09028267702567959</v>
       </c>
       <c r="E89" t="n">
+        <v>9.717508372065365e-125</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0004641561223513876</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1009571064166095</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.009956897278019086</v>
+        <v>0.009956897278020831</v>
       </c>
       <c r="E90" t="n">
+        <v>0.008933972874104587</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0001133158863562908</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2374507413815597</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.01218321191203199</v>
+        <v>-0.01218321191203417</v>
       </c>
       <c r="E91" t="n">
+        <v>0.001378021903096695</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0001615320917242782</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.6944089914815781</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1559330059258008</v>
+        <v>-0.155933005925824</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002031304738295611</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8371322009804134</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.05601604341334999</v>
+        <v>-0.05601604341335326</v>
       </c>
       <c r="E93" t="n">
+        <v>6.130220040149204e-49</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.0009313227726633972</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7126969260111909</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.0925637194143009</v>
+        <v>0.09256371941427807</v>
       </c>
       <c r="E94" t="n">
+        <v>5.363241143171819e-126</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002369610060563585</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.01927994494032883</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1048746271115452</v>
+        <v>0.1048746271115186</v>
       </c>
       <c r="E95" t="n">
+        <v>2.298952471707804e-161</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002171653128209426</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01424863150390572</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.04747798728248842</v>
+        <v>0.04747798728247523</v>
       </c>
       <c r="E96" t="n">
+        <v>2.218511905504061e-34</v>
+      </c>
+      <c r="F96" t="n">
         <v>2.744018888111134e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.005869485936411089</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.004564890831001317</v>
+        <v>-0.004564890831001224</v>
       </c>
       <c r="E97" t="n">
+        <v>0.3339200756342364</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.0004839121248978575</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.017522375710797</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.06186137867353982</v>
+        <v>0.06186137867355192</v>
       </c>
       <c r="E98" t="n">
+        <v>3.11539761657514e-41</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.1100398925450543</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>46.99264605912326</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.07055289844153066</v>
+        <v>-0.07055289844151638</v>
       </c>
       <c r="E99" t="n">
+        <v>3.623730585154449e-54</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.2821310194107239</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>209.2544539297296</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.007175588474446225</v>
+        <v>0.007175588474445684</v>
       </c>
       <c r="E100" t="n">
+        <v>0.113728164254493</v>
+      </c>
+      <c r="F100" t="n">
         <v>0.002935468936350694</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.231503722600589</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2353482133565474</v>
+        <v>0.2353482133565438</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01198153579286994</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3073435903360231</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6428908994588637</v>
+        <v>-0.6428908994588522</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-17239738.0725459</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1467785651.298664</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6428908947610769</v>
+        <v>-0.6428908947610685</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-17239.73803034134</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1467785.632115397</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.08447907306902259</v>
+        <v>-0.08447907306902225</v>
       </c>
       <c r="E104" t="n">
+        <v>3.000435793128495e-25</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.532006737654397</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>223.1050098010417</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.03413427929397413</v>
+        <v>0.03413427929397336</v>
       </c>
       <c r="E105" t="n">
+        <v>8.01366819239085e-05</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0002224722236593944</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.03974684986945522</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.06992314721845258</v>
+        <v>0.06992314721846155</v>
       </c>
       <c r="E106" t="n">
+        <v>6.00937913646021e-16</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.001109166447352288</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.137456931337828</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1656654304737889</v>
+        <v>-0.1656654304737896</v>
       </c>
       <c r="E107" t="n">
+        <v>7.372234975034014e-85</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.006120676664517389</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.35600175842224</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.04078594660525071</v>
+        <v>-0.0407859466052519</v>
       </c>
       <c r="E108" t="n">
+        <v>1.813599842297986e-06</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.1559383244857783</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>93.45517411706432</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.258125687638276</v>
+        <v>-0.2581256876382779</v>
       </c>
       <c r="E109" t="n">
+        <v>3.921567235659279e-207</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.356215035313243</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>45.93195131732888</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.007762106552422189</v>
+        <v>0.00776210655242254</v>
       </c>
       <c r="E110" t="n">
+        <v>0.3697823272453241</v>
+      </c>
+      <c r="F110" t="n">
         <v>0.003030563044335276</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>1.788600484424854</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1398368701530567</v>
+        <v>0.1398368701530584</v>
       </c>
       <c r="E111" t="n">
+        <v>2.752145196703422e-59</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.003161180901513685</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.3482067391887961</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.03521236169087114</v>
+        <v>0.03521236169086961</v>
       </c>
       <c r="E112" t="n">
+        <v>4.728988887632904e-05</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.005758429148090174</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.573503441226102</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.1243382034794645</v>
+        <v>-0.1243382034794597</v>
       </c>
       <c r="E113" t="n">
+        <v>5.792375296326087e-48</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.1681722047219561</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>34.50779074355077</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.001565975499540506</v>
+        <v>0.001565975499540217</v>
       </c>
       <c r="E114" t="n">
+        <v>0.8564574241189172</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.0001133771171742112</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.8963390708211754</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.09304406552579618</v>
+        <v>0.09304406552579002</v>
       </c>
       <c r="E115" t="n">
+        <v>1.117001403553772e-27</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.002533789170982837</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.2904954289507533</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2703575481047742</v>
+        <v>0.2703575481047792</v>
       </c>
       <c r="E116" t="n">
+        <v>5.173353642297922e-228</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1869685271302264</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>4.936428743141176</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.03110248005879895</v>
+        <v>-0.03110248005879872</v>
       </c>
       <c r="E117" t="n">
+        <v>0.0002779646519632398</v>
+      </c>
+      <c r="F117" t="n">
         <v>-0.001316954077058628</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.382002321878549</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1299518653541177</v>
+        <v>-0.1299518653541185</v>
       </c>
       <c r="E118" t="n">
+        <v>1.275725539607696e-52</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.5731942357536524</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>225.8841370693086</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.00111556026043761</v>
+        <v>-0.001115560260437846</v>
       </c>
       <c r="E119" t="n">
+        <v>0.8961413646156957</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.0003795802024264258</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.6833070242803</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.002300142811492939</v>
+        <v>0.002300142811492783</v>
       </c>
       <c r="E120" t="n">
+        <v>0.7878433807993863</v>
+      </c>
+      <c r="F120" t="n">
         <v>0.08683948698011541</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>286.2521090618665</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0865430810427783</v>
+        <v>0.08654308104277843</v>
       </c>
       <c r="E121" t="n">
+        <v>4.147340633253294e-24</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.02396642964496512</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>22.43716035851394</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.1314764983383219</v>
+        <v>0.1314764983383234</v>
       </c>
       <c r="E122" t="n">
+        <v>6.487016099800669e-54</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.006526416825903257</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.5044342624573975</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.04460403090866553</v>
+        <v>0.04460403090866732</v>
       </c>
       <c r="E123" t="n">
+        <v>1.785256865463478e-07</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.04660591778931714</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>1.489440031863963</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.2836590058642138</v>
+        <v>0.2836590058642083</v>
       </c>
       <c r="E124" t="n">
+        <v>9.098113455625275e-252</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.01511968838791389</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.1234383464008206</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3226349622145286</v>
+        <v>-0.3226349622145409</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.05917617376865943</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>6.376250522788375</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.06404549594907129</v>
+        <v>0.06404549594907279</v>
       </c>
       <c r="E126" t="n">
+        <v>1.285071297291987e-13</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01442181208794907</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.201558890021116</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.02613805042817465</v>
+        <v>-0.0261380504281744</v>
       </c>
       <c r="E127" t="n">
+        <v>0.002230243950262866</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.5599839009513555</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>187.5943411398246</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.04216323668304096</v>
+        <v>-0.04216323668303941</v>
       </c>
       <c r="E128" t="n">
+        <v>8.300437982939463e-07</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.204711944411082</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>126.3951549465141</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.1559273512696301</v>
+        <v>-0.1559273512696338</v>
       </c>
       <c r="E129" t="n">
+        <v>1.730086485574265e-73</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.07121031209358467</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>46.52880047472887</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.04335161580000897</v>
+        <v>0.04335161580000857</v>
       </c>
       <c r="E130" t="n">
+        <v>3.871430421296052e-07</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.08736724758518648</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>49.84291358914415</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1921085297753088</v>
+        <v>-0.1921085297753134</v>
       </c>
       <c r="E131" t="n">
+        <v>2.845525038378054e-111</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.03121153053025907</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>15.77210141100326</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.03107585495806876</v>
+        <v>0.0310758549580696</v>
       </c>
       <c r="E132" t="n">
+        <v>0.0002783110144623236</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.001460127246763887</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>4.090149381038565</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1143456578544982</v>
+        <v>-0.1143456578544972</v>
       </c>
       <c r="E133" t="n">
+        <v>7.360046785538309e-40</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.4271771670067185</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>129.5439319494705</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1102661805067155</v>
+        <v>-0.1102661805067157</v>
       </c>
       <c r="E134" t="n">
+        <v>2.131074847606797e-37</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1115076974742197</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>36.77524096623421</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.04195707978863965</v>
+        <v>0.04195707978864054</v>
       </c>
       <c r="E135" t="n">
+        <v>1.299325719642146e-06</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.008938079369671663</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>29.89831821941852</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.1502203275510723</v>
+        <v>-0.1502203275510697</v>
       </c>
       <c r="E136" t="n">
+        <v>6.49448597143037e-68</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.01870304537185739</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>34.02597594681665</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1627970106096464</v>
+        <v>0.1627970106096442</v>
       </c>
       <c r="E137" t="n">
+        <v>5.240651439771937e-80</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1072510255178959</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.78458510558947</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1391503041190336</v>
+        <v>0.1391503041190345</v>
       </c>
       <c r="E138" t="n">
+        <v>1.018876677803183e-58</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.0351506695177695</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>6.09411916284601</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.004966017030429196</v>
+        <v>0.004966017030429266</v>
       </c>
       <c r="E139" t="n">
+        <v>0.5681911520663264</v>
+      </c>
+      <c r="F139" t="n">
         <v>0.0005341326139064873</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.15063120328338</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.04688747183224844</v>
+        <v>0.04688747183225197</v>
       </c>
       <c r="E140" t="n">
+        <v>4.029487003408398e-08</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.01440297479184753</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>138.4041299645395</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.05548261809976231</v>
+        <v>0.05548261809976026</v>
       </c>
       <c r="E141" t="n">
+        <v>1.420080151269444e-10</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.05986226938042007</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>54.17743021261012</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.1854088825069972</v>
+        <v>0.1854088825069962</v>
       </c>
       <c r="E142" t="n">
+        <v>4.290319757861442e-105</v>
+      </c>
+      <c r="F142" t="n">
         <v>20.73478332616284</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-1130.525035390549</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.008330400944681904</v>
+        <v>-0.008330400944681871</v>
       </c>
       <c r="E143" t="n">
+        <v>0.3383761583861075</v>
+      </c>
+      <c r="F143" t="n">
         <v>-0.002083125484000507</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.96349498598667</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.09495345878018006</v>
+        <v>-0.09495345878018169</v>
       </c>
       <c r="E144" t="n">
+        <v>3.808374515663795e-28</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.705605035574115</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>280.1316902987509</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.2271644174314939</v>
+        <v>-0.2271644174315016</v>
       </c>
       <c r="E145" t="n">
+        <v>5.792424615760507e-156</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.01273080781048119</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.36355268830827</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.100785371266889</v>
+        <v>0.1007853712668884</v>
       </c>
       <c r="E146" t="n">
+        <v>1.660295512817362e-31</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.01516723644505611</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.01554871996183</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.1338596965714632</v>
+        <v>-0.1338596965714625</v>
       </c>
       <c r="E147" t="n">
+        <v>9.444075512582574e-56</v>
+      </c>
+      <c r="F147" t="n">
         <v>-1.349176539261191</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>249.1335035130955</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1785465566780401</v>
+        <v>-0.1785465566780362</v>
       </c>
       <c r="E148" t="n">
+        <v>1.772756833107332e-98</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.008947768889062941</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.467858206045629</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.03078196898133981</v>
+        <v>0.03078196898133798</v>
       </c>
       <c r="E149" t="n">
+        <v>0.000373984640298109</v>
+      </c>
+      <c r="F149" t="n">
         <v>0.01355887505443068</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>5.860584372488077</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.0127172574558576</v>
+        <v>-0.01271725745585732</v>
       </c>
       <c r="E150" t="n">
+        <v>0.1380604610229907</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.01022931013969524</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>3.247328662291241</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.09247782484765524</v>
+        <v>0.09247782484765309</v>
       </c>
       <c r="E151" t="n">
+        <v>3.180811285373012e-27</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.1306803438842326</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>22.35541959981159</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1410776562812148</v>
+        <v>-0.1410776562812187</v>
       </c>
       <c r="E152" t="n">
+        <v>8.742438053342118e-62</v>
+      </c>
+      <c r="F152" t="n">
         <v>-213.4509769692811</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>62636.53259398868</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.04222885546364235</v>
+        <v>0.04222885546364376</v>
       </c>
       <c r="E153" t="n">
+        <v>7.725843594470538e-07</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.01844883536057776</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>2.669160244425487</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.027845389790139</v>
+        <v>-0.02784538979013996</v>
       </c>
       <c r="E154" t="n">
+        <v>0.00112197734507429</v>
+      </c>
+      <c r="F154" t="n">
         <v>-1.305813518460756</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>695.7859498057444</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.008646002422356807</v>
+        <v>0.008646002422357017</v>
       </c>
       <c r="E155" t="n">
+        <v>0.3118083228356264</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.05674514336667601</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>3.7833927345609</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.1453031381018373</v>
+        <v>0.1453031381018402</v>
       </c>
       <c r="E156" t="n">
+        <v>1.809748432669286e-65</v>
+      </c>
+      <c r="F156" t="n">
         <v>25.38036027122754</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>123.861608667991</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1164306668792525</v>
+        <v>-0.1164306668792553</v>
       </c>
       <c r="E157" t="n">
+        <v>1.606208513963942e-42</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.4783992562750176</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>135.9044112336459</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.05275160798236381</v>
+        <v>0.05275160798236358</v>
       </c>
       <c r="E158" t="n">
+        <v>1.271369441833422e-07</v>
+      </c>
+      <c r="F158" t="n">
         <v>0.002893979991987258</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>0.7168543174418452</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.2103254753881633</v>
+        <v>0.2103254753881533</v>
       </c>
       <c r="E159" t="n">
+        <v>1.930773050716781e-108</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.09815077884423587</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>5.915841499422214</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.06787527896390635</v>
+        <v>-0.06787527896390524</v>
       </c>
       <c r="E160" t="n">
+        <v>7.526513468307614e-13</v>
+      </c>
+      <c r="F160" t="n">
         <v>-75.45758821457667</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>40394.38134934763</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.01694354155936433</v>
+        <v>-0.01694354155936447</v>
       </c>
       <c r="E161" t="n">
+        <v>0.07381274665070428</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.1193679135802779</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>233.5836987224384</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.02633150032151865</v>
+        <v>0.02633150032151791</v>
       </c>
       <c r="E162" t="n">
+        <v>0.003132804627711236</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0002082536274779055</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.03586671024984492</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.07303299001787475</v>
+        <v>0.07303299001787539</v>
       </c>
       <c r="E163" t="n">
+        <v>2.431448660781915e-16</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0002889332126680704</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.01625218155932814</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.01335746061922144</v>
+        <v>-0.01335746061922166</v>
       </c>
       <c r="E164" t="n">
+        <v>0.1342469161240102</v>
+      </c>
+      <c r="F164" t="n">
         <v>-5.739965523192193e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.01103160664598316</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.1058679813632396</v>
+        <v>0.1058679813632364</v>
       </c>
       <c r="E165" t="n">
+        <v>1.052026292047332e-32</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.00196766499807841</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.08814379421757876</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.05140493752002665</v>
+        <v>0.05140493752002564</v>
       </c>
       <c r="E166" t="n">
+        <v>7.905789839671402e-09</v>
+      </c>
+      <c r="F166" t="n">
         <v>1.483703262492741e-05</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.0006316780285198686</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.1038176263538402</v>
+        <v>0.1038176263538376</v>
       </c>
       <c r="E167" t="n">
+        <v>1.65337988222456e-31</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.001839325559656025</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.08456483539652485</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09351009000588567</v>
+        <v>0.09351009000588255</v>
       </c>
       <c r="E168" t="n">
+        <v>7.520926580515694e-26</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001644460789180626</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.08874276764332857</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.08928821112063481</v>
+        <v>0.08928821112063534</v>
       </c>
       <c r="E169" t="n">
+        <v>1.058145536627749e-23</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001487199451134152</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.08924626734131859</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.09097917921301005</v>
+        <v>0.09097917921301268</v>
       </c>
       <c r="E170" t="n">
+        <v>1.502324608239747e-24</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001476145374648266</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.002126120418762738</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.08423802055719297</v>
+        <v>0.08423802055719325</v>
       </c>
       <c r="E171" t="n">
+        <v>1.073396212629004e-21</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.001163965810504099</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6342772058225847</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.06474949313573727</v>
+        <v>-0.06474949313573648</v>
       </c>
       <c r="E172" t="n">
+        <v>1.977789046711326e-13</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.000652783450112271</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.2027507048534516</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.00604376869451088</v>
+        <v>-0.006043768694510742</v>
       </c>
       <c r="E173" t="n">
+        <v>0.4928428497744629</v>
+      </c>
+      <c r="F173" t="n">
         <v>-9.375679154496482e-06</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.009088495176300391</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.02938894743037007</v>
+        <v>-0.02938894743036971</v>
       </c>
       <c r="E174" t="n">
+        <v>0.000851486250458515</v>
+      </c>
+      <c r="F174" t="n">
         <v>-0.000215417199296769</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9508624946880903</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.01936239233381166</v>
+        <v>-0.01936239233381168</v>
       </c>
       <c r="E175" t="n">
+        <v>0.02800785497323525</v>
+      </c>
+      <c r="F175" t="n">
         <v>-0.0001723182449763765</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9635426579266189</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.06441356399485915</v>
+        <v>0.06441356399485976</v>
       </c>
       <c r="E176" t="n">
+        <v>2.548286320456175e-13</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0003142897649873375</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01860226896185794</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.01300287908407316</v>
+        <v>0.01300287908407332</v>
       </c>
       <c r="E177" t="n">
+        <v>0.1437797016911904</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.004888752997407499</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>-0.1318924422612059</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.05565478190770645</v>
+        <v>-0.05565478190770518</v>
       </c>
       <c r="E178" t="n">
+        <v>2.487983554153356e-08</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0001535523345976033</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03714891388124105</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.1687012014076776</v>
+        <v>-0.1687012014076844</v>
       </c>
       <c r="E179" t="n">
+        <v>4.101463313023874e-81</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.003439564978033106</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.5632801278330122</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.06177506451658311</v>
+        <v>-0.06177506451658359</v>
       </c>
       <c r="E180" t="n">
+        <v>3.615272490552271e-12</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.00166097456388796</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.4567454749054473</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.08388594531893569</v>
+        <v>-0.08388594531893762</v>
       </c>
       <c r="E181" t="n">
+        <v>3.971428936166753e-21</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.000720213420999134</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.08654350317342921</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.1484347763608961</v>
+        <v>-0.1484347763608967</v>
       </c>
       <c r="E182" t="n">
+        <v>3.40518805165845e-63</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.007422569070873187</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.410856651892434</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.006665962587115363</v>
+        <v>0.006665962587115511</v>
       </c>
       <c r="E183" t="n">
+        <v>0.4540612517811078</v>
+      </c>
+      <c r="F183" t="n">
         <v>9.134961656734035e-05</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.01153435803951439</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.01643616343163906</v>
+        <v>0.01643616343163965</v>
       </c>
       <c r="E184" t="n">
+        <v>0.0648823960367497</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.00600640619940429</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-0.3422688119413507</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.2912251685416801</v>
+        <v>-0.2912251685416906</v>
       </c>
       <c r="E185" t="n">
+        <v>6.113296907538942e-245</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.001841032327295668</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.1885392960933241</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.03939761798415355</v>
+        <v>-0.03939761798415513</v>
       </c>
       <c r="E186" t="n">
+        <v>9.6731962248154e-06</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.001271445853130141</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.4787530885514489</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.1465212411919653</v>
+        <v>-0.1465212411919647</v>
       </c>
       <c r="E187" t="n">
+        <v>1.321937230787625e-61</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.009700219513865193</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.006060233095249</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.08445849776542019</v>
+        <v>-0.08445849776542314</v>
       </c>
       <c r="E188" t="n">
+        <v>2.049073221866911e-21</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001129190439774337</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1686230513678674</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.06663042253923393</v>
+        <v>-0.06663042253923687</v>
       </c>
       <c r="E189" t="n">
+        <v>3.336546407631015e-14</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0003886311059700528</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.09612433838172067</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.03853333107164147</v>
+        <v>0.03853333107164336</v>
       </c>
       <c r="E190" t="n">
+        <v>1.170535842242923e-05</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0005349838727428361</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2189422554636293</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.04404898075713091</v>
+        <v>-0.04404898075713284</v>
       </c>
       <c r="E191" t="n">
+        <v>5.415970343490122e-07</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.0006952094377061311</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7179789683383742</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1531362670566337</v>
+        <v>-0.1531362670566396</v>
       </c>
       <c r="E192" t="n">
+        <v>1.090481949075784e-68</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002237240247945109</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.848250397632099</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.1273257498240175</v>
+        <v>-0.1273257498240188</v>
       </c>
       <c r="E193" t="n">
+        <v>8.723366756839087e-48</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.002391589218313636</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.8233763533756856</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.08552645256639621</v>
+        <v>0.0855264525663943</v>
       </c>
       <c r="E194" t="n">
+        <v>7.113326479546031e-22</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0002371109451790584</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.01829199131790626</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.09926985104737961</v>
+        <v>0.09926985104737603</v>
       </c>
       <c r="E195" t="n">
+        <v>6.135487502172351e-29</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002360449147417674</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01400202712428294</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.0517896198181966</v>
+        <v>0.05178961981819512</v>
       </c>
       <c r="E196" t="n">
+        <v>6.110870164507724e-09</v>
+      </c>
+      <c r="F196" t="n">
         <v>3.577801869693518e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.005249412917106469</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.04339807927538566</v>
+        <v>-0.04339807927538552</v>
       </c>
       <c r="E197" t="n">
+        <v>6.643086253835305e-05</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.004310342686359997</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.236691694323977</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.0337657779115677</v>
+        <v>0.03376577791156905</v>
       </c>
       <c r="E198" t="n">
+        <v>0.001078688315586491</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.06904409036750685</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>48.98412876196063</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.1033539876230308</v>
+        <v>-0.103353987623032</v>
       </c>
       <c r="E199" t="n">
+        <v>5.616969713404534e-24</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.5021801591908326</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>220.0646143926107</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.07443284640079714</v>
+        <v>-0.0744328464007994</v>
       </c>
       <c r="E200" t="n">
+        <v>2.931332452195139e-13</v>
+      </c>
+      <c r="F200" t="n">
         <v>-0.03250903752489183</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>5.724292665214242</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.1941563866123896</v>
+        <v>0.1941563866123907</v>
       </c>
       <c r="E201" t="n">
+        <v>5.887976342418014e-82</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01125700387882902</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.3500707328170729</v>
       </c>
     </row>
